--- a/Assets/Resources/Model/NPC/TownNPC/DialogueSheet 1.xlsx
+++ b/Assets/Resources/Model/NPC/TownNPC/DialogueSheet 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SungyuJang\Desktop\GitHubDesktop\RPGGame\Assets\02Script\Manager\DialogueManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\GitHubGameProject\RPGGame\Assets\Resources\Model\NPC\TownNPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA66216E-1AC7-4EB9-96E7-9B5CF17FA620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AD70B0-99F1-4614-B0AB-1A167DF2292E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CAD4DF56-E29E-41CF-98A8-9E3149639929}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ComfirmBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>난 여기서 기다리고 있을게.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,6 +215,28 @@
   </si>
   <si>
     <t>혹시 뭐 필요한거 있어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘들것 같은데요...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠르게 처리하고 올게요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54781867-1FA7-4C5B-AC3C-22B0018CE468}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -778,7 +796,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -831,8 +849,8 @@
         <v>36</v>
       </c>
       <c r="C17">
-        <f>A20</f>
-        <v>18</v>
+        <f>A22</f>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -843,13 +861,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <f>A20</f>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -857,14 +876,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C19">
-        <f>A13</f>
-        <v>11</v>
+        <f>A22</f>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -878,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -886,13 +905,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <f>A13</f>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -900,14 +920,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22">
-        <f>A24</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -915,14 +934,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23">
-        <f>A22</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -930,13 +948,14 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <f>A26</f>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -944,13 +963,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <f>A24</f>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -964,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -978,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -992,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1006,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1020,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1028,12 +1048,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>42</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1046,15 +1094,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{92B7F7DB-169A-483B-809C-96394DD3F7F9}">
           <x14:formula1>
-            <xm:f>Sheet2!$A$2:$A$6</xm:f>
+            <xm:f>Sheet2!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B32</xm:sqref>
+          <xm:sqref>B34</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CD61DBD6-C33C-4179-9938-23AA7C24BA0F}">
           <x14:formula1>
-            <xm:f>Sheet2!$A$2:$A$9</xm:f>
+            <xm:f>Sheet2!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B31</xm:sqref>
+          <xm:sqref>B2:B33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1064,7 +1112,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4410726-9782-4B5B-A178-F046F8C273F4}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -1097,26 +1145,31 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>43</v>
       </c>
     </row>
